--- a/ig/ch-term/ValueSet-ch-vacd-targetdiseasesandillnessesundergoneforimmunization-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-targetdiseasesandillnessesundergoneforimmunization-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -292,6 +292,24 @@
   </si>
   <si>
     <t>Encephalomyelitis caused by Neisseria meningitidis (disorder)</t>
+  </si>
+  <si>
+    <t>55735004</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus infection (disorder)</t>
+  </si>
+  <si>
+    <t>38362002</t>
+  </si>
+  <si>
+    <t>Dengue (disorder)</t>
+  </si>
+  <si>
+    <t>111852003</t>
+  </si>
+  <si>
+    <t>Vaccinia (disorder)</t>
   </si>
   <si>
     <t/>
@@ -577,7 +595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,15 +866,39 @@
         <v>93</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ValueSet-ch-vacd-targetdiseasesandillnessesundergoneforimmunization-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-targetdiseasesandillnessesundergoneforimmunization-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -108,6 +108,18 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>34014006</t>
+  </si>
+  <si>
+    <t>Viral disease (disorder)</t>
+  </si>
+  <si>
+    <t>87628006</t>
+  </si>
+  <si>
+    <t>Bacterial infectious disease (disorder)</t>
+  </si>
+  <si>
     <t>422400008</t>
   </si>
   <si>
@@ -234,6 +246,12 @@
     <t>Japanese encephalitis virus disease (disorder)</t>
   </si>
   <si>
+    <t>6142004</t>
+  </si>
+  <si>
+    <t>Influenza (disorder)</t>
+  </si>
+  <si>
     <t>719865001</t>
   </si>
   <si>
@@ -310,6 +328,162 @@
   </si>
   <si>
     <t>Vaccinia (disorder)</t>
+  </si>
+  <si>
+    <t>85904008</t>
+  </si>
+  <si>
+    <t>Paratyphoid fever (disorder)</t>
+  </si>
+  <si>
+    <t>409498004</t>
+  </si>
+  <si>
+    <t>Anthrax (disorder)</t>
+  </si>
+  <si>
+    <t>721758001</t>
+  </si>
+  <si>
+    <t>Infection caused by Coxiella (disorder)</t>
+  </si>
+  <si>
+    <t>25225006</t>
+  </si>
+  <si>
+    <t>Disease caused by Adenovirus (disorder)</t>
+  </si>
+  <si>
+    <t>721734000</t>
+  </si>
+  <si>
+    <t>Infection caused by Francisella (disorder)</t>
+  </si>
+  <si>
+    <t>77377001</t>
+  </si>
+  <si>
+    <t>Leptospirosis (disorder)</t>
+  </si>
+  <si>
+    <t>715507005</t>
+  </si>
+  <si>
+    <t>Infection of central nervous system caused by Borrelia burgdorferi (disorder)</t>
+  </si>
+  <si>
+    <t>721778009</t>
+  </si>
+  <si>
+    <t>Infection caused by Junin virus (disorder)</t>
+  </si>
+  <si>
+    <t>19265001</t>
+  </si>
+  <si>
+    <t>Tularemia (disorder)</t>
+  </si>
+  <si>
+    <t>58750007</t>
+  </si>
+  <si>
+    <t>Plague (disorder)</t>
+  </si>
+  <si>
+    <t>442438000</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus (disorder)</t>
+  </si>
+  <si>
+    <t>442696006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H1N1 (disorder)</t>
+  </si>
+  <si>
+    <t>772810003</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H3N2 (disorder)</t>
+  </si>
+  <si>
+    <t>772828001</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H5N1 (disorder)</t>
+  </si>
+  <si>
+    <t>24662006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza B virus (disorder)</t>
+  </si>
+  <si>
+    <t>7180009</t>
+  </si>
+  <si>
+    <t>Meningitis (disorder)</t>
+  </si>
+  <si>
+    <t>186772009</t>
+  </si>
+  <si>
+    <t>Rocky Mountain spotted fever (disorder)</t>
+  </si>
+  <si>
+    <t>37246009</t>
+  </si>
+  <si>
+    <t>Disease caused by rickettsiae (disorder)</t>
+  </si>
+  <si>
+    <t>56038003</t>
+  </si>
+  <si>
+    <t>Staphylococcal infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>373437006</t>
+  </si>
+  <si>
+    <t>Infection caused by Mycobacterium bovis (disorder)</t>
+  </si>
+  <si>
+    <t>53648006</t>
+  </si>
+  <si>
+    <t>Disease caused by Enterovirus (disorder)</t>
+  </si>
+  <si>
+    <t>62676009</t>
+  </si>
+  <si>
+    <t>Falciparum malaria (disorder)</t>
+  </si>
+  <si>
+    <t>713456006</t>
+  </si>
+  <si>
+    <t>Infection caused by Human enterovirus 71 (disorder)</t>
+  </si>
+  <si>
+    <t>95896000</t>
+  </si>
+  <si>
+    <t>Protozoan infection (disorder)</t>
+  </si>
+  <si>
+    <t>56688005</t>
+  </si>
+  <si>
+    <t>Clostridial infection (disorder)</t>
+  </si>
+  <si>
+    <t>83436008</t>
+  </si>
+  <si>
+    <t>Yersiniosis (disorder)</t>
   </si>
   <si>
     <t/>
@@ -595,7 +769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,15 +1064,247 @@
         <v>99</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ValueSet-ch-vacd-targetdiseasesandillnessesundergoneforimmunization-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-targetdiseasesandillnessesundergoneforimmunization-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -484,6 +484,36 @@
   </si>
   <si>
     <t>Yersiniosis (disorder)</t>
+  </si>
+  <si>
+    <t>58606001</t>
+  </si>
+  <si>
+    <t>Primary immune deficiency disorder (disorder)</t>
+  </si>
+  <si>
+    <t>33286000</t>
+  </si>
+  <si>
+    <t>Secondary immune deficiency disorder (disorder)</t>
+  </si>
+  <si>
+    <t>28944009</t>
+  </si>
+  <si>
+    <t>Infection caused by Cytomegalovirus (disorder)</t>
+  </si>
+  <si>
+    <t>16318001000119107</t>
+  </si>
+  <si>
+    <t>Hypogammaglobulinemia due to multiple myeloma (disorder)</t>
+  </si>
+  <si>
+    <t>165746003</t>
+  </si>
+  <si>
+    <t>RhD negative (finding)</t>
   </si>
   <si>
     <t/>
@@ -769,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1296,15 +1326,55 @@
         <v>157</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
